--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_prj_origin_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_prj_origin_kernel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="origin_sr_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="origin_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,16 +468,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.45427728613569</v>
+        <v>95.87020648967551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1276308479714013</v>
+        <v>0.09778179700855011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.944542772861357</v>
+        <v>0.9587020648967552</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9432372041865904</v>
+        <v>0.9583359238321429</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +487,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.92625368731564</v>
+        <v>94.24830664625127</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1909825641027499</v>
+        <v>0.2158669812993432</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9492625368731563</v>
+        <v>0.9424830664625127</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9467851416245658</v>
+        <v>0.9377274984339424</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +506,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.93215339233038</v>
+        <v>96.99115044247787</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1128485459016398</v>
+        <v>0.1047424293218379</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9693215339233039</v>
+        <v>0.9699115044247788</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9684993314732943</v>
+        <v>0.9687287990391142</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +525,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.71386430678466</v>
+        <v>95.39823008849558</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2007332974152329</v>
+        <v>0.1202479979071844</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9271386430678467</v>
+        <v>0.9539823008849557</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9193074266940096</v>
+        <v>0.9529442731619462</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +544,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.39145667350064</v>
+        <v>84.81085476517963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5078694910897563</v>
+        <v>0.363289544978276</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8239145667350064</v>
+        <v>0.8481085476517963</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8049164821714045</v>
+        <v>0.8306029419331125</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +563,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.03852109447314</v>
+        <v>91.00364190001643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1817922622954939</v>
+        <v>0.2675578212869975</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9303852109447313</v>
+        <v>0.9100364190001644</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9238965081500463</v>
+        <v>0.8959488258247381</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +582,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.68141592920354</v>
+        <v>93.1268436578171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2047198058936071</v>
+        <v>0.1650172004915172</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9168141592920354</v>
+        <v>0.9312684365781712</v>
       </c>
       <c r="E8" t="n">
-        <v>0.915397593000983</v>
+        <v>0.9299405535859442</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +601,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.5665446932932</v>
+        <v>94.39545324786546</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1960437356705976</v>
+        <v>0.1394633024807566</v>
       </c>
       <c r="D9" t="n">
-        <v>0.925665446932932</v>
+        <v>0.9439545324786547</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9223989593081342</v>
+        <v>0.9436978728146288</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +620,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.53982300884955</v>
+        <v>94.18879056047197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1770231810741583</v>
+        <v>0.1732112246474874</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9353982300884957</v>
+        <v>0.9418879056047198</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9338578804622928</v>
+        <v>0.9392850057315666</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +639,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.15339233038348</v>
+        <v>90.73746312684366</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2336783963179793</v>
+        <v>0.2430665971276293</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9215339233038348</v>
+        <v>0.9073746312684365</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9107063034135663</v>
+        <v>0.896805994073602</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +658,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.30383480825959</v>
+        <v>85.51622418879056</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6535566606645584</v>
+        <v>0.5140954402585218</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8330383480825958</v>
+        <v>0.8551622418879056</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8234037908045246</v>
+        <v>0.8466472375069136</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +677,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.28908554572271</v>
+        <v>85.98820058997049</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5672673171696563</v>
+        <v>0.5175283380377853</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8828908554572271</v>
+        <v>0.8598820058997051</v>
       </c>
       <c r="E13" t="n">
-        <v>0.862689204082425</v>
+        <v>0.8451341895278827</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +696,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.08554572271387</v>
+        <v>99.1740412979351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03170184399959908</v>
+        <v>0.04106286002610014</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9908554572271386</v>
+        <v>0.991740412979351</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9908463557132701</v>
+        <v>0.9917627400306805</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +715,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.08554572271387</v>
+        <v>99.5575221238938</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02063261316969166</v>
+        <v>0.01164856562478581</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9908554572271386</v>
+        <v>0.9955752212389382</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9909635775735278</v>
+        <v>0.9955771543067341</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +734,366 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>97.37463126843657</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0607245885989831</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9737463126843657</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9732010666935768</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>93.22543735960808</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2023536459397171</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9322543735960808</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9270893384331018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.26912862568015</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2196589897381879</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9126912862568016</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9094466196030794</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>84.1361949497833</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3777428565808805</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8413619494978331</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8261493490763112</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>91.6815889410808</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1979083250606891</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.916815889410808</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9111386491703752</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>87.31580723016636</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3271060797929143</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8731580723016634</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8700226504650159</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>69.83754184724782</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.000477964477614</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6983754184724782</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6708317983976861</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>80.05614235417262</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5975777872954495</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8005614235417262</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7874891797076651</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.49557522123894</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3081322050653398</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8849557522123893</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8782924171446483</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.32743362831859</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2055945784207628</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9132743362831859</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.911662099020037</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.47249543681173</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2538084874434086</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9047249543681174</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9012421837473262</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>78.37844618033027</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9181661951103404</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7837844618033027</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7586798301844134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>80.97345132743364</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6009348392651493</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8097345132743363</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8080440130324458</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.12441284094152</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5555034214982395</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8212441284094153</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8148318272349927</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.45757316239761</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.114506535493274</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.954575731623976</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9547362946003949</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.85840707964601</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1981614777690083</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9185840707964601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9131183656406547</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>96.51917404129793</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0855118413751427</v>
+        <v>0.09628563986843801</v>
       </c>
       <c r="D16" t="n">
         <v>0.9651917404129794</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9636297333821815</v>
+        <v>0.9648161660065451</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +1103,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.71205921619853</v>
+        <v>86.66022485776982</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2327994936074176</v>
+        <v>0.3981043588586464</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9271205921619853</v>
+        <v>0.8666022485776981</v>
       </c>
       <c r="E17" t="n">
-        <v>0.921369032802721</v>
+        <v>0.858700096202106</v>
       </c>
     </row>
   </sheetData>
